--- a/vehicles.xlsx
+++ b/vehicles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB526987-A5B8-4043-8515-AAA0E788FEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BDE4401-0EC1-467C-9055-5E1ADFC429B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Nice</t>
   </si>
   <si>
-    <t>https://vehicle-images.dealerinspire.com/2e6a-110010848/1FBAX2C84NKA19843/6c991a50868af59b825df0455938439f.jpg,https://vehicle-images.dealerinspire.com/ca35-110010848/1FBAX2C84NKA19843/beb56e55770d9d2dea0c58eb1a6ef708.jpg,https://vehicle-images.dealerinspire.com/7025-110010848/1FBAX2C84NKA19843/ce8f2b90ccb941e2bb7418c9cf6d165b.jpg,https://vehicle-images.dealerinspire.com/04bb-110010848/1FBAX2C84NKA19843/882a183f5b741b37a201624cc96e70e8.jpg,https://vehicle-images.dealerinspire.com/cdb8-110010848/1FBAX2C84NKA19843/88dcce73e3a7bbbda8d9be8b2580ec44.jpg,https://vehicle-images.dealerinspire.com/59aa-110010848/1FBAX2C84NKA19843/4c9e05ac2920a65f2677ba6b82038fc0.png,https://vehicle-images.dealerinspire.com/389f-110010848/1FBAX2C84NKA19843/30fff4b3d8b43c35163b4a619c31134c.jpg,https://vehicle-images.dealerinspire.com/a9db-110010848/1FBAX2C84NKA19843/ca1faf5198f57dd697258305350f726a.jpg,https://vehicle-images.dealerinspire.com/4c57-110010848/1FBAX2C84NKA19843/e0ac005380209e33d30655657f9e66a2.jpg,https://vehicle-images.dealerinspire.com/dc77-110010848/1FBAX2C84NKA19843/03f03ab0f70df762c8f53e665fb0a798.jpg,https://vehicle-images.dealerinspire.com/5d18-110010848/1FBAX2C84NKA19843/ed04c810a2a5f7ca59302ad20a90eb9c.jpg,https://vehicle-images.dealerinspire.com/5304-110010848/1FBAX2C84NKA19843/f969abbccd1361aabe79e19cd62308b8.jpg,https://vehicle-images.dealerinspire.com/6d1f-110010848/1FBAX2C84NKA19843/370410c51134e42814ce09df2791691b.jpg,https://vehicle-images.dealerinspire.com/6742-110010848/1FBAX2C84NKA19843/0dd19f0576fd6f6be19329bd19c71050.jpg,https://vehicle-images.dealerinspire.com/e8ca-110010848/1FBAX2C84NKA19843/bd6db14aae01632f809db9193fc7555e.jpg,https://vehicle-images.dealerinspire.com/c313-110010848/1FBAX2C84NKA19843/5044786422e7bccca0f5e9925143ee31.jpg,https://vehicle-images.dealerinspire.com/a49a-110010848/1FBAX2C84NKA19843/bbc96781c3ec88c7f32cd49b97cc2864.jpg,https://vehicle-images.dealerinspire.com/b0be-110010848/1FBAX2C84NKA19843/4ca962a02414c336f06f49d725873c24.jpg,https://vehicle-images.dealerinspire.com/6b8f-110010848/1FBAX2C84NKA19843/c81216f8dcf004512cdd37e38025cf75.jpg,https://vehicle-images.dealerinspire.com/c31c-110010848/1FBAX2C84NKA19843/9d1f27fa05b25d05e9faffc68a9e95ef.jpg,https://vehicle-images.dealerinspire.com/41e7-110010848/1FBAX2C84NKA19843/4395f3a3cf9cf892acdabcef1cd5bd40.jpg,https://vehicle-images.dealerinspire.com/5084-110010848/1FBAX2C84NKA19843/12a81fd63918b8ada097ec17c453af60.jpg,https://vehicle-images.dealerinspire.com/0192-110010848/1FBAX2C84NKA19843/2a1b0096971d1649e65601780d3566fd.jpg,https://vehicle-images.dealerinspire.com/8bfa-110010848/1FBAX2C84NKA19843/79efffb0bfb8aae69bc681a52540322f.jpg,https://vehicle-images.dealerinspire.com/84b0-110010848/1FBAX2C84NKA19843/d80ed6de17ebf61e851fe563b7c43117.jpg,https://vehicle-images.dealerinspire.com/fe93-110010848/1FBAX2C84NKA19843/072c767a5bd51f2e08b53b840ccb0e26.jpg,https://vehicle-images.dealerinspire.com/1a9b-110010848/1FBAX2C84NKA19843/e4c91d668662b20f55cacdad36c9b941.jpg,https://vehicle-images.dealerinspire.com/cc1d-110010848/1FBAX2C84NKA19843/44eaa74e686f8853afe262f58d90046e.jpg</t>
+    <t>https://vehicle-images.dealerinspire.com/59aa-110010848/1FBAX2C84NKA19843/4c9e05ac2920a65f2677ba6b82038fc0.png,https://vehicle-images.dealerinspire.com/389f-110010848/1FBAX2C84NKA19843/30fff4b3d8b43c35163b4a619c31134c.jpg,https://vehicle-images.dealerinspire.com/a9db-110010848/1FBAX2C84NKA19843/ca1faf5198f57dd697258305350f726a.jpg,https://vehicle-images.dealerinspire.com/4c57-110010848/1FBAX2C84NKA19843/e0ac005380209e33d30655657f9e66a2.jpg,https://vehicle-images.dealerinspire.com/dc77-110010848/1FBAX2C84NKA19843/03f03ab0f70df762c8f53e665fb0a798.jpg,https://vehicle-images.dealerinspire.com/5d18-110010848/1FBAX2C84NKA19843/ed04c810a2a5f7ca59302ad20a90eb9c.jpg,https://vehicle-images.dealerinspire.com/5304-110010848/1FBAX2C84NKA19843/f969abbccd1361aabe79e19cd62308b8.jpg,https://vehicle-images.dealerinspire.com/6d1f-110010848/1FBAX2C84NKA19843/370410c51134e42814ce09df2791691b.jpg,https://vehicle-images.dealerinspire.com/6742-110010848/1FBAX2C84NKA19843/0dd19f0576fd6f6be19329bd19c71050.jpg,https://vehicle-images.dealerinspire.com/e8ca-110010848/1FBAX2C84NKA19843/bd6db14aae01632f809db9193fc7555e.jpg,https://vehicle-images.dealerinspire.com/c313-110010848/1FBAX2C84NKA19843/5044786422e7bccca0f5e9925143ee31.jpg,https://vehicle-images.dealerinspire.com/a49a-110010848/1FBAX2C84NKA19843/bbc96781c3ec88c7f32cd49b97cc2864.jpg,https://vehicle-images.dealerinspire.com/b0be-110010848/1FBAX2C84NKA19843/4ca962a02414c336f06f49d725873c24.jpg,https://vehicle-images.dealerinspire.com/6b8f-110010848/1FBAX2C84NKA19843/c81216f8dcf004512cdd37e38025cf75.jpg,https://vehicle-images.dealerinspire.com/c31c-110010848/1FBAX2C84NKA19843/9d1f27fa05b25d05e9faffc68a9e95ef.jpg,https://vehicle-images.dealerinspire.com/41e7-110010848/1FBAX2C84NKA19843/4395f3a3cf9cf892acdabcef1cd5bd40.jpg,https://vehicle-images.dealerinspire.com/5084-110010848/1FBAX2C84NKA19843/12a81fd63918b8ada097ec17c453af60.jpg,https://vehicle-images.dealerinspire.com/0192-110010848/1FBAX2C84NKA19843/2a1b0096971d1649e65601780d3566fd.jpg,https://vehicle-images.dealerinspire.com/8bfa-110010848/1FBAX2C84NKA19843/79efffb0bfb8aae69bc681a52540322f.jpg,https://vehicle-images.dealerinspire.com/84b0-110010848/1FBAX2C84NKA19843/d80ed6de17ebf61e851fe563b7c43117.jpg,https://vehicle-images.dealerinspire.com/fe93-110010848/1FBAX2C84NKA19843/072c767a5bd51f2e08b53b840ccb0e26.jpg,https://vehicle-images.dealerinspire.com/1a9b-110010848/1FBAX2C84NKA19843/e4c91d668662b20f55cacdad36c9b941.jpg,https://vehicle-images.dealerinspire.com/cc1d-110010848/1FBAX2C84NKA19843/44eaa74e686f8853afe262f58d90046e.jpg,https://vehicle-images.dealerinspire.com/2e6a-110010848/1FBAX2C84NKA19843/6c991a50868af59b825df0455938439f.jpg,https://vehicle-images.dealerinspire.com/ca35-110010848/1FBAX2C84NKA19843/beb56e55770d9d2dea0c58eb1a6ef708.jpg,https://vehicle-images.dealerinspire.com/7025-110010848/1FBAX2C84NKA19843/ce8f2b90ccb941e2bb7418c9cf6d165b.jpg,https://vehicle-images.dealerinspire.com/04bb-110010848/1FBAX2C84NKA19843/882a183f5b741b37a201624cc96e70e8.jpg,https://vehicle-images.dealerinspire.com/cdb8-110010848/1FBAX2C84NKA19843/88dcce73e3a7bbbda8d9be8b2580ec44.jpg</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/vehicles.xlsx
+++ b/vehicles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BDE4401-0EC1-467C-9055-5E1ADFC429B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{076BC302-EC2B-4072-8B6A-CCF27BD1610E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Stock</t>
   </si>
@@ -91,12 +91,72 @@
   </si>
   <si>
     <t>https://vehicle-images.dealerinspire.com/59aa-110010848/1FBAX2C84NKA19843/4c9e05ac2920a65f2677ba6b82038fc0.png,https://vehicle-images.dealerinspire.com/389f-110010848/1FBAX2C84NKA19843/30fff4b3d8b43c35163b4a619c31134c.jpg,https://vehicle-images.dealerinspire.com/a9db-110010848/1FBAX2C84NKA19843/ca1faf5198f57dd697258305350f726a.jpg,https://vehicle-images.dealerinspire.com/4c57-110010848/1FBAX2C84NKA19843/e0ac005380209e33d30655657f9e66a2.jpg,https://vehicle-images.dealerinspire.com/dc77-110010848/1FBAX2C84NKA19843/03f03ab0f70df762c8f53e665fb0a798.jpg,https://vehicle-images.dealerinspire.com/5d18-110010848/1FBAX2C84NKA19843/ed04c810a2a5f7ca59302ad20a90eb9c.jpg,https://vehicle-images.dealerinspire.com/5304-110010848/1FBAX2C84NKA19843/f969abbccd1361aabe79e19cd62308b8.jpg,https://vehicle-images.dealerinspire.com/6d1f-110010848/1FBAX2C84NKA19843/370410c51134e42814ce09df2791691b.jpg,https://vehicle-images.dealerinspire.com/6742-110010848/1FBAX2C84NKA19843/0dd19f0576fd6f6be19329bd19c71050.jpg,https://vehicle-images.dealerinspire.com/e8ca-110010848/1FBAX2C84NKA19843/bd6db14aae01632f809db9193fc7555e.jpg,https://vehicle-images.dealerinspire.com/c313-110010848/1FBAX2C84NKA19843/5044786422e7bccca0f5e9925143ee31.jpg,https://vehicle-images.dealerinspire.com/a49a-110010848/1FBAX2C84NKA19843/bbc96781c3ec88c7f32cd49b97cc2864.jpg,https://vehicle-images.dealerinspire.com/b0be-110010848/1FBAX2C84NKA19843/4ca962a02414c336f06f49d725873c24.jpg,https://vehicle-images.dealerinspire.com/6b8f-110010848/1FBAX2C84NKA19843/c81216f8dcf004512cdd37e38025cf75.jpg,https://vehicle-images.dealerinspire.com/c31c-110010848/1FBAX2C84NKA19843/9d1f27fa05b25d05e9faffc68a9e95ef.jpg,https://vehicle-images.dealerinspire.com/41e7-110010848/1FBAX2C84NKA19843/4395f3a3cf9cf892acdabcef1cd5bd40.jpg,https://vehicle-images.dealerinspire.com/5084-110010848/1FBAX2C84NKA19843/12a81fd63918b8ada097ec17c453af60.jpg,https://vehicle-images.dealerinspire.com/0192-110010848/1FBAX2C84NKA19843/2a1b0096971d1649e65601780d3566fd.jpg,https://vehicle-images.dealerinspire.com/8bfa-110010848/1FBAX2C84NKA19843/79efffb0bfb8aae69bc681a52540322f.jpg,https://vehicle-images.dealerinspire.com/84b0-110010848/1FBAX2C84NKA19843/d80ed6de17ebf61e851fe563b7c43117.jpg,https://vehicle-images.dealerinspire.com/fe93-110010848/1FBAX2C84NKA19843/072c767a5bd51f2e08b53b840ccb0e26.jpg,https://vehicle-images.dealerinspire.com/1a9b-110010848/1FBAX2C84NKA19843/e4c91d668662b20f55cacdad36c9b941.jpg,https://vehicle-images.dealerinspire.com/cc1d-110010848/1FBAX2C84NKA19843/44eaa74e686f8853afe262f58d90046e.jpg,https://vehicle-images.dealerinspire.com/2e6a-110010848/1FBAX2C84NKA19843/6c991a50868af59b825df0455938439f.jpg,https://vehicle-images.dealerinspire.com/ca35-110010848/1FBAX2C84NKA19843/beb56e55770d9d2dea0c58eb1a6ef708.jpg,https://vehicle-images.dealerinspire.com/7025-110010848/1FBAX2C84NKA19843/ce8f2b90ccb941e2bb7418c9cf6d165b.jpg,https://vehicle-images.dealerinspire.com/04bb-110010848/1FBAX2C84NKA19843/882a183f5b741b37a201624cc96e70e8.jpg,https://vehicle-images.dealerinspire.com/cdb8-110010848/1FBAX2C84NKA19843/88dcce73e3a7bbbda8d9be8b2580ec44.jpg</t>
+  </si>
+  <si>
+    <t>Mercedes Benz</t>
+  </si>
+  <si>
+    <t>High Roof</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>W1Z70FGYXPT140876</t>
+  </si>
+  <si>
+    <t>Nice Van</t>
+  </si>
+  <si>
+    <t>https://vehicle-images.dealerinspire.com/3cd4-11001792/W1Z70FGYXPT140876/a77216eddeac6a3acda0f8e54ec4d73a.jpg,https://vehicle-images.dealerinspire.com/5d88-11001792/W1Z70FGYXPT140876/9e61bebbc03cc097b80de804d2557d49.jpg,https://vehicle-images.dealerinspire.com/f62e-11001792/W1Z70FGYXPT140876/75849829be54b344cd1c274352783c35.jpg,https://vehicle-images.dealerinspire.com/3033-11001792/W1Z70FGYXPT140876/aee0b823893010062b2abef3dc4aac94.jpg,https://vehicle-images.dealerinspire.com/87bc-11001792/W1Z70FGYXPT140876/262ed58ca10dc3942679f3c2b0516c6e.jpg,https://vehicle-images.dealerinspire.com/d8a7-11001792/W1Z70FGYXPT140876/2120b223bcc2f682d513af15d0af660d.jpg,https://vehicle-images.dealerinspire.com/b53a-11001792/W1Z70FGYXPT140876/b4feb999be03c4f27a773323766e9742.jpg,https://vehicle-images.dealerinspire.com/5e20-11001792/W1Z70FGYXPT140876/97f1df47b99a8dd5657df9504703e763.jpg,https://vehicle-images.dealerinspire.com/96ac-11001792/W1Z70FGYXPT140876/a353ff22082bf6e746dd937606560a10.jpg,https://vehicle-images.dealerinspire.com/35cf-11001792/W1Z70FGYXPT140876/1b5263dba46c8da94bc641afe8a08be8.jpg,https://vehicle-images.dealerinspire.com/8482-11001792/W1Z70FGYXPT140876/b28ed4c7b94eee136a8076374620657d.jpg,https://vehicle-images.dealerinspire.com/230c-11001792/W1Z70FGYXPT140876/53fab97009aa47449f3d1699b3daf360.jpg,https://vehicle-images.dealerinspire.com/6b67-11001792/W1Z70FGYXPT140876/95eebcb5a959d8f587c65f7ef9b303d9.jpg,https://vehicle-images.dealerinspire.com/2a80-11001792/W1Z70FGYXPT140876/4aea4eecf2d918f159924abe184ce033.jpg,https://vehicle-images.dealerinspire.com/26b4-11001792/W1Z70FGYXPT140876/06f430a4497918cc7b1f6d6a05edd9e0.jpg,https://vehicle-images.dealerinspire.com/c5ad-11001792/W1Z70FGYXPT140876/eb6954f80003c9897183eac540905e12.jpg,https://vehicle-images.dealerinspire.com/4840-11001792/W1Z70FGYXPT140876/2adba1bfa4529dd3540cd4da633d8dd2.jpg,https://vehicle-images.dealerinspire.com/ba40-11001792/W1Z70FGYXPT140876/cb54c1932b3c431f23be704372211c18.jpg,https://vehicle-images.dealerinspire.com/a3ae-11001792/W1Z70FGYXPT140876/b1d968620ef1ce173f7c04d6c0e1821a.jpg,https://vehicle-images.dealerinspire.com/354f-11001792/W1Z70FGYXPT140876/d4bcda1d246989e8c05931f85d4b84ce.jpg,https://vehicle-images.dealerinspire.com/a11f-11001792/W1Z70FGYXPT140876/3957961676025655f7ba812adee58639.jpg,https://vehicle-images.dealerinspire.com/f6aa-11001792/W1Z70FGYXPT140876/9ac3da778df4967e3c982612b137d217.jpg,https://vehicle-images.dealerinspire.com/551f-11001792/W1Z70FGYXPT140876/b61142981f19782c47396c5e71748fbf.jpg,https://vehicle-images.dealerinspire.com/a09c-11001792/W1Z70FGYXPT140876/ec2f155b102be5178254d9711f85ddeb.jpg,https://vehicle-images.dealerinspire.com/b205-11001792/W1Z70FGYXPT140876/66f7b899e9e312d43634be8569cb7a43.jpg</t>
+  </si>
+  <si>
+    <t>E8636P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ford </t>
+  </si>
+  <si>
+    <t>350 XLT</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>1FBAX2C80NKA53875</t>
+  </si>
+  <si>
+    <t>Real Nice</t>
+  </si>
+  <si>
+    <t>https://vehicle-images.dealerinspire.com/d88b-110007036/1FBAX2C80NKA53875/a47fada6fa1c54be501dfb3871a06060.jpg</t>
+  </si>
+  <si>
+    <t>Chevrolet</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>LS 3500</t>
+  </si>
+  <si>
+    <t>1GAZGLFP6P1155271</t>
+  </si>
+  <si>
+    <t>Eh...</t>
+  </si>
+  <si>
+    <t>https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_18009186_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_18467678_4522524522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_548057_4532424532025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_21677126_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_36118680_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_65915339_4532424532025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_97869350_4532424532025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_19641376_4523324522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_33281711_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_62834643_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_21110799_4482424482025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_89139530_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_88323496_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_60591147_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_12604981_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_13694200_4461724462025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_10595468_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_62461927_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_13629800_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_36912557_4512224512025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_61366732_4482924482025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_52166234_4473024472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_16403809_4533124532025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_28592041_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_85840617_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_18703302_4482724482025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_10228949_4512224512025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_24566635_4512424512025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_10944751_4482724482025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_31226475_4482824482025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_17577166_4532424532025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_94431168_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_17256544_4482424482025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_72352111_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_12371612_4512724512025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_17360961_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_20697111_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_18110232_4512524512025.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -134,15 +194,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -175,8 +240,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1B093AB-65BD-4ADD-BDA8-D7C3EB5D4E42}" name="Vehicles" displayName="Vehicles" ref="A1:L2" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L2" xr:uid="{C1B093AB-65BD-4ADD-BDA8-D7C3EB5D4E42}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1B093AB-65BD-4ADD-BDA8-D7C3EB5D4E42}" name="Vehicles" displayName="Vehicles" ref="A1:L5" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:L5" xr:uid="{C1B093AB-65BD-4ADD-BDA8-D7C3EB5D4E42}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -196,7 +261,7 @@
     <tableColumn id="3" xr3:uid="{2254C054-6543-44A2-8987-778AA3156127}" name="Make"/>
     <tableColumn id="4" xr3:uid="{735CB29E-AAA6-41B7-90F2-13FF00E2FAB9}" name="Model"/>
     <tableColumn id="5" xr3:uid="{8F896F04-C924-4B30-985D-75D123339EA3}" name="Trim"/>
-    <tableColumn id="6" xr3:uid="{98EA6636-B646-49B5-ACAA-8016F36D58E9}" name="Price"/>
+    <tableColumn id="6" xr3:uid="{98EA6636-B646-49B5-ACAA-8016F36D58E9}" name="Price" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{776D39B8-3A17-4760-9DA3-82965F75647A}" name="Mileage"/>
     <tableColumn id="8" xr3:uid="{5BC23080-9B8E-4EB1-B677-A3261255EF70}" name="Color"/>
     <tableColumn id="9" xr3:uid="{BFBA8E6D-0132-4E2A-BBC3-717A642F6D80}" name="VIN"/>
@@ -525,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -593,7 +658,7 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>34999</v>
       </c>
       <c r="G2" s="2">
@@ -613,6 +678,120 @@
       </c>
       <c r="L2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>53564</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>1500</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3">
+        <v>37995</v>
+      </c>
+      <c r="G3">
+        <v>42005</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3">
+        <v>38544</v>
+      </c>
+      <c r="G4">
+        <v>51202</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>155271</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3">
+        <v>30999</v>
+      </c>
+      <c r="G5">
+        <v>31116</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/vehicles.xlsx
+++ b/vehicles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{076BC302-EC2B-4072-8B6A-CCF27BD1610E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C8053A-D760-418D-8526-7C182F6F25C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Nice</t>
   </si>
   <si>
-    <t>https://vehicle-images.dealerinspire.com/59aa-110010848/1FBAX2C84NKA19843/4c9e05ac2920a65f2677ba6b82038fc0.png,https://vehicle-images.dealerinspire.com/389f-110010848/1FBAX2C84NKA19843/30fff4b3d8b43c35163b4a619c31134c.jpg,https://vehicle-images.dealerinspire.com/a9db-110010848/1FBAX2C84NKA19843/ca1faf5198f57dd697258305350f726a.jpg,https://vehicle-images.dealerinspire.com/4c57-110010848/1FBAX2C84NKA19843/e0ac005380209e33d30655657f9e66a2.jpg,https://vehicle-images.dealerinspire.com/dc77-110010848/1FBAX2C84NKA19843/03f03ab0f70df762c8f53e665fb0a798.jpg,https://vehicle-images.dealerinspire.com/5d18-110010848/1FBAX2C84NKA19843/ed04c810a2a5f7ca59302ad20a90eb9c.jpg,https://vehicle-images.dealerinspire.com/5304-110010848/1FBAX2C84NKA19843/f969abbccd1361aabe79e19cd62308b8.jpg,https://vehicle-images.dealerinspire.com/6d1f-110010848/1FBAX2C84NKA19843/370410c51134e42814ce09df2791691b.jpg,https://vehicle-images.dealerinspire.com/6742-110010848/1FBAX2C84NKA19843/0dd19f0576fd6f6be19329bd19c71050.jpg,https://vehicle-images.dealerinspire.com/e8ca-110010848/1FBAX2C84NKA19843/bd6db14aae01632f809db9193fc7555e.jpg,https://vehicle-images.dealerinspire.com/c313-110010848/1FBAX2C84NKA19843/5044786422e7bccca0f5e9925143ee31.jpg,https://vehicle-images.dealerinspire.com/a49a-110010848/1FBAX2C84NKA19843/bbc96781c3ec88c7f32cd49b97cc2864.jpg,https://vehicle-images.dealerinspire.com/b0be-110010848/1FBAX2C84NKA19843/4ca962a02414c336f06f49d725873c24.jpg,https://vehicle-images.dealerinspire.com/6b8f-110010848/1FBAX2C84NKA19843/c81216f8dcf004512cdd37e38025cf75.jpg,https://vehicle-images.dealerinspire.com/c31c-110010848/1FBAX2C84NKA19843/9d1f27fa05b25d05e9faffc68a9e95ef.jpg,https://vehicle-images.dealerinspire.com/41e7-110010848/1FBAX2C84NKA19843/4395f3a3cf9cf892acdabcef1cd5bd40.jpg,https://vehicle-images.dealerinspire.com/5084-110010848/1FBAX2C84NKA19843/12a81fd63918b8ada097ec17c453af60.jpg,https://vehicle-images.dealerinspire.com/0192-110010848/1FBAX2C84NKA19843/2a1b0096971d1649e65601780d3566fd.jpg,https://vehicle-images.dealerinspire.com/8bfa-110010848/1FBAX2C84NKA19843/79efffb0bfb8aae69bc681a52540322f.jpg,https://vehicle-images.dealerinspire.com/84b0-110010848/1FBAX2C84NKA19843/d80ed6de17ebf61e851fe563b7c43117.jpg,https://vehicle-images.dealerinspire.com/fe93-110010848/1FBAX2C84NKA19843/072c767a5bd51f2e08b53b840ccb0e26.jpg,https://vehicle-images.dealerinspire.com/1a9b-110010848/1FBAX2C84NKA19843/e4c91d668662b20f55cacdad36c9b941.jpg,https://vehicle-images.dealerinspire.com/cc1d-110010848/1FBAX2C84NKA19843/44eaa74e686f8853afe262f58d90046e.jpg,https://vehicle-images.dealerinspire.com/2e6a-110010848/1FBAX2C84NKA19843/6c991a50868af59b825df0455938439f.jpg,https://vehicle-images.dealerinspire.com/ca35-110010848/1FBAX2C84NKA19843/beb56e55770d9d2dea0c58eb1a6ef708.jpg,https://vehicle-images.dealerinspire.com/7025-110010848/1FBAX2C84NKA19843/ce8f2b90ccb941e2bb7418c9cf6d165b.jpg,https://vehicle-images.dealerinspire.com/04bb-110010848/1FBAX2C84NKA19843/882a183f5b741b37a201624cc96e70e8.jpg,https://vehicle-images.dealerinspire.com/cdb8-110010848/1FBAX2C84NKA19843/88dcce73e3a7bbbda8d9be8b2580ec44.jpg</t>
+    <t>https://vehicle-images.dealerinspire.com/59aa-110010848/1FBAX2C84NKA19843/4c9e05ac2920a65f2677ba6b82038fc0.png, https://vehicle-images.dealerinspire.com/fe93-110010848/1FBAX2C84NKA19843/072c767a5bd51f2e08b53b840ccb0e26.jpg, https://vehicle-images.dealerinspire.com/4c57-110010848/1FBAX2C84NKA19843/e0ac005380209e33d30655657f9e66a2.jpg, https://vehicle-images.dealerinspire.com/e8ca-110010848/1FBAX2C84NKA19843/bd6db14aae01632f809db9193fc7555e.jpg, https://vehicle-images.dealerinspire.com/2e6a-110010848/1FBAX2C84NKA19843/6c991a50868af59b825df0455938439f.jpg, https://vehicle-images.dealerinspire.com/cdb8-110010848/1FBAX2C84NKA19843/88dcce73e3a7bbbda8d9be8b2580ec44.jpg, https://vehicle-images.dealerinspire.com/41e7-110010848/1FBAX2C84NKA19843/4395f3a3cf9cf892acdabcef1cd5bd40.jpg, https://vehicle-images.dealerinspire.com/6d1f-110010848/1FBAX2C84NKA19843/370410c51134e42814ce09df2791691b.jpg, https://vehicle-images.dealerinspire.com/84b0-110010848/1FBAX2C84NKA19843/d80ed6de17ebf61e851fe563b7c43117.jpg, https://vehicle-images.dealerinspire.com/5084-110010848/1FBAX2C84NKA19843/12a81fd63918b8ada097ec17c453af60.jpg, https://vehicle-images.dealerinspire.com/a49a-110010848/1FBAX2C84NKA19843/bbc96781c3ec88c7f32cd49b97cc2864.jpg, https://vehicle-images.dealerinspire.com/b0be-110010848/1FBAX2C84NKA19843/4ca962a02414c336f06f49d725873c24.jpg, https://vehicle-images.dealerinspire.com/389f-110010848/1FBAX2C84NKA19843/30fff4b3d8b43c35163b4a619c31134c.jpg, https://vehicle-images.dealerinspire.com/6742-110010848/1FBAX2C84NKA19843/0dd19f0576fd6f6be19329bd19c71050.jpg, https://vehicle-images.dealerinspire.com/5304-110010848/1FBAX2C84NKA19843/f969abbccd1361aabe79e19cd62308b8.jpg, https://vehicle-images.dealerinspire.com/c31c-110010848/1FBAX2C84NKA19843/9d1f27fa05b25d05e9faffc68a9e95ef.jpg, https://vehicle-images.dealerinspire.com/0192-110010848/1FBAX2C84NKA19843/2a1b0096971d1649e65601780d3566fd.jpg, https://vehicle-images.dealerinspire.com/1a9b-110010848/1FBAX2C84NKA19843/e4c91d668662b20f55cacdad36c9b941.jpg, https://vehicle-images.dealerinspire.com/8bfa-110010848/1FBAX2C84NKA19843/79efffb0bfb8aae69bc681a52540322f.jpg, https://vehicle-images.dealerinspire.com/6b8f-110010848/1FBAX2C84NKA19843/c81216f8dcf004512cdd37e38025cf75.jpg, https://vehicle-images.dealerinspire.com/a9db-110010848/1FBAX2C84NKA19843/ca1faf5198f57dd697258305350f726a.jpg, https://vehicle-images.dealerinspire.com/dc77-110010848/1FBAX2C84NKA19843/03f03ab0f70df762c8f53e665fb0a798.jpg, https://vehicle-images.dealerinspire.com/7025-110010848/1FBAX2C84NKA19843/ce8f2b90ccb941e2bb7418c9cf6d165b.jpg, https://vehicle-images.dealerinspire.com/5d18-110010848/1FBAX2C84NKA19843/ed04c810a2a5f7ca59302ad20a90eb9c.jpg, https://vehicle-images.dealerinspire.com/c313-110010848/1FBAX2C84NKA19843/5044786422e7bccca0f5e9925143ee31.jpg, https://vehicle-images.dealerinspire.com/cc1d-110010848/1FBAX2C84NKA19843/44eaa74e686f8853afe262f58d90046e.jpg, https://vehicle-images.dealerinspire.com/04bb-110010848/1FBAX2C84NKA19843/882a183f5b741b37a201624cc96e70e8.jpg, https://vehicle-images.dealerinspire.com/ca35-110010848/1FBAX2C84NKA19843/beb56e55770d9d2dea0c58eb1a6ef708.jpg</t>
   </si>
   <si>
     <t>Mercedes Benz</t>
@@ -108,7 +108,7 @@
     <t>Nice Van</t>
   </si>
   <si>
-    <t>https://vehicle-images.dealerinspire.com/3cd4-11001792/W1Z70FGYXPT140876/a77216eddeac6a3acda0f8e54ec4d73a.jpg,https://vehicle-images.dealerinspire.com/5d88-11001792/W1Z70FGYXPT140876/9e61bebbc03cc097b80de804d2557d49.jpg,https://vehicle-images.dealerinspire.com/f62e-11001792/W1Z70FGYXPT140876/75849829be54b344cd1c274352783c35.jpg,https://vehicle-images.dealerinspire.com/3033-11001792/W1Z70FGYXPT140876/aee0b823893010062b2abef3dc4aac94.jpg,https://vehicle-images.dealerinspire.com/87bc-11001792/W1Z70FGYXPT140876/262ed58ca10dc3942679f3c2b0516c6e.jpg,https://vehicle-images.dealerinspire.com/d8a7-11001792/W1Z70FGYXPT140876/2120b223bcc2f682d513af15d0af660d.jpg,https://vehicle-images.dealerinspire.com/b53a-11001792/W1Z70FGYXPT140876/b4feb999be03c4f27a773323766e9742.jpg,https://vehicle-images.dealerinspire.com/5e20-11001792/W1Z70FGYXPT140876/97f1df47b99a8dd5657df9504703e763.jpg,https://vehicle-images.dealerinspire.com/96ac-11001792/W1Z70FGYXPT140876/a353ff22082bf6e746dd937606560a10.jpg,https://vehicle-images.dealerinspire.com/35cf-11001792/W1Z70FGYXPT140876/1b5263dba46c8da94bc641afe8a08be8.jpg,https://vehicle-images.dealerinspire.com/8482-11001792/W1Z70FGYXPT140876/b28ed4c7b94eee136a8076374620657d.jpg,https://vehicle-images.dealerinspire.com/230c-11001792/W1Z70FGYXPT140876/53fab97009aa47449f3d1699b3daf360.jpg,https://vehicle-images.dealerinspire.com/6b67-11001792/W1Z70FGYXPT140876/95eebcb5a959d8f587c65f7ef9b303d9.jpg,https://vehicle-images.dealerinspire.com/2a80-11001792/W1Z70FGYXPT140876/4aea4eecf2d918f159924abe184ce033.jpg,https://vehicle-images.dealerinspire.com/26b4-11001792/W1Z70FGYXPT140876/06f430a4497918cc7b1f6d6a05edd9e0.jpg,https://vehicle-images.dealerinspire.com/c5ad-11001792/W1Z70FGYXPT140876/eb6954f80003c9897183eac540905e12.jpg,https://vehicle-images.dealerinspire.com/4840-11001792/W1Z70FGYXPT140876/2adba1bfa4529dd3540cd4da633d8dd2.jpg,https://vehicle-images.dealerinspire.com/ba40-11001792/W1Z70FGYXPT140876/cb54c1932b3c431f23be704372211c18.jpg,https://vehicle-images.dealerinspire.com/a3ae-11001792/W1Z70FGYXPT140876/b1d968620ef1ce173f7c04d6c0e1821a.jpg,https://vehicle-images.dealerinspire.com/354f-11001792/W1Z70FGYXPT140876/d4bcda1d246989e8c05931f85d4b84ce.jpg,https://vehicle-images.dealerinspire.com/a11f-11001792/W1Z70FGYXPT140876/3957961676025655f7ba812adee58639.jpg,https://vehicle-images.dealerinspire.com/f6aa-11001792/W1Z70FGYXPT140876/9ac3da778df4967e3c982612b137d217.jpg,https://vehicle-images.dealerinspire.com/551f-11001792/W1Z70FGYXPT140876/b61142981f19782c47396c5e71748fbf.jpg,https://vehicle-images.dealerinspire.com/a09c-11001792/W1Z70FGYXPT140876/ec2f155b102be5178254d9711f85ddeb.jpg,https://vehicle-images.dealerinspire.com/b205-11001792/W1Z70FGYXPT140876/66f7b899e9e312d43634be8569cb7a43.jpg</t>
+    <t>https://vehicle-images.dealerinspire.com/5d88-11001792/W1Z70FGYXPT140876/9e61bebbc03cc097b80de804d2557d49.jpg, https://vehicle-images.dealerinspire.com/6b67-11001792/W1Z70FGYXPT140876/95eebcb5a959d8f587c65f7ef9b303d9.jpg, https://vehicle-images.dealerinspire.com/3033-11001792/W1Z70FGYXPT140876/aee0b823893010062b2abef3dc4aac94.jpg, https://vehicle-images.dealerinspire.com/230c-11001792/W1Z70FGYXPT140876/53fab97009aa47449f3d1699b3daf360.jpg, https://vehicle-images.dealerinspire.com/354f-11001792/W1Z70FGYXPT140876/d4bcda1d246989e8c05931f85d4b84ce.jpg, https://vehicle-images.dealerinspire.com/a3ae-11001792/W1Z70FGYXPT140876/b1d968620ef1ce173f7c04d6c0e1821a.jpg, https://vehicle-images.dealerinspire.com/f62e-11001792/W1Z70FGYXPT140876/75849829be54b344cd1c274352783c35.jpg, https://vehicle-images.dealerinspire.com/2a80-11001792/W1Z70FGYXPT140876/4aea4eecf2d918f159924abe184ce033.jpg, https://vehicle-images.dealerinspire.com/3cd4-11001792/W1Z70FGYXPT140876/a77216eddeac6a3acda0f8e54ec4d73a.jpg, https://vehicle-images.dealerinspire.com/96ac-11001792/W1Z70FGYXPT140876/a353ff22082bf6e746dd937606560a10.jpg, https://vehicle-images.dealerinspire.com/ba40-11001792/W1Z70FGYXPT140876/cb54c1932b3c431f23be704372211c18.jpg, https://vehicle-images.dealerinspire.com/d8a7-11001792/W1Z70FGYXPT140876/2120b223bcc2f682d513af15d0af660d.jpg, https://vehicle-images.dealerinspire.com/551f-11001792/W1Z70FGYXPT140876/b61142981f19782c47396c5e71748fbf.jpg, https://vehicle-images.dealerinspire.com/a11f-11001792/W1Z70FGYXPT140876/3957961676025655f7ba812adee58639.jpg, https://vehicle-images.dealerinspire.com/87bc-11001792/W1Z70FGYXPT140876/262ed58ca10dc3942679f3c2b0516c6e.jpg, https://vehicle-images.dealerinspire.com/35cf-11001792/W1Z70FGYXPT140876/1b5263dba46c8da94bc641afe8a08be8.jpg, https://vehicle-images.dealerinspire.com/8482-11001792/W1Z70FGYXPT140876/b28ed4c7b94eee136a8076374620657d.jpg, https://vehicle-images.dealerinspire.com/b53a-11001792/W1Z70FGYXPT140876/b4feb999be03c4f27a773323766e9742.jpg, https://vehicle-images.dealerinspire.com/26b4-11001792/W1Z70FGYXPT140876/06f430a4497918cc7b1f6d6a05edd9e0.jpg, https://vehicle-images.dealerinspire.com/c5ad-11001792/W1Z70FGYXPT140876/eb6954f80003c9897183eac540905e12.jpg, https://vehicle-images.dealerinspire.com/f6aa-11001792/W1Z70FGYXPT140876/9ac3da778df4967e3c982612b137d217.jpg, https://vehicle-images.dealerinspire.com/b205-11001792/W1Z70FGYXPT140876/66f7b899e9e312d43634be8569cb7a43.jpg, https://vehicle-images.dealerinspire.com/a09c-11001792/W1Z70FGYXPT140876/ec2f155b102be5178254d9711f85ddeb.jpg, https://vehicle-images.dealerinspire.com/5e20-11001792/W1Z70FGYXPT140876/97f1df47b99a8dd5657df9504703e763.jpg, https://vehicle-images.dealerinspire.com/4840-11001792/W1Z70FGYXPT140876/2adba1bfa4529dd3540cd4da633d8dd2.jpg</t>
   </si>
   <si>
     <t>E8636P</t>
@@ -147,7 +147,7 @@
     <t>Eh...</t>
   </si>
   <si>
-    <t>https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_18009186_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_18467678_4522524522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_548057_4532424532025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_21677126_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_36118680_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_65915339_4532424532025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_97869350_4532424532025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_19641376_4523324522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_33281711_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_62834643_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_21110799_4482424482025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_89139530_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_88323496_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_60591147_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_12604981_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_13694200_4461724462025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_10595468_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_62461927_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_13629800_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_36912557_4512224512025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_61366732_4482924482025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_52166234_4473024472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_16403809_4533124532025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_28592041_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_85840617_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_18703302_4482724482025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_10228949_4512224512025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_24566635_4512424512025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_10944751_4482724482025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_31226475_4482824482025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_17577166_4532424532025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_94431168_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_17256544_4482424482025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_72352111_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_12371612_4512724512025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_17360961_4522624522025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_20697111_4472324472025.jpg,https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_18110232_4512524512025.jpg</t>
+    <t>https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_65915339_4532424532025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_19641376_4523324522025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_62461927_4522624522025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_18467678_4522524522025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_21677126_4522624522025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_36118680_4472324472025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_97869350_4532424532025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_18009186_4472324472025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_548057_4532424532025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_33281711_4472324472025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_12604981_4472324472025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_24566635_4512424512025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_36912557_4512224512025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_12371612_4512724512025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_85840617_4522624522025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_72352111_4522624522025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_62834643_4522624522025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_17360961_4522624522025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_10595468_4522624522025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_60591147_4522624522025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_17256544_4482424482025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_10944751_4482724482025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_28592041_4522624522025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_18703302_4482724482025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_31226475_4482824482025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_18110232_4512524512025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_21110799_4482424482025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_61366732_4482924482025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_89139530_4472324472025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_88323496_4472324472025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_13694200_4461724462025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_52166234_4473024472025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_13629800_4472324472025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_16403809_4533124532025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_94431168_4472324472025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_10228949_4512224512025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_17577166_4532424532025.jpg, https://invimg2.autofunds.net/InventoryImages/2025/05/24/4181_2606707_20697111_4472324472025.jpg</t>
   </si>
 </sst>
 </file>
@@ -194,12 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,7 +592,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -790,7 +789,7 @@
       <c r="K5" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" t="s">
         <v>38</v>
       </c>
     </row>
